--- a/data/raw/Brisbane/Brisbane_PFU_counts.xlsx
+++ b/data/raw/Brisbane/Brisbane_PFU_counts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
   <si>
     <t xml:space="preserve">Plate_1</t>
   </si>
@@ -67,10 +67,7 @@
     <t xml:space="preserve">Plate_10</t>
   </si>
   <si>
-    <t xml:space="preserve">Plate_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control plate, no viral infection</t>
+    <t xml:space="preserve">Control plate, no viral infection (deleted because we don’t have the image)</t>
   </si>
 </sst>
 </file>
@@ -413,8 +410,8 @@
   </sheetPr>
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G61" activeCellId="0" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1701,102 +1698,32 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="G61" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="B63" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B65" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -1827,7 +1754,7 @@
       <c r="J67" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A13:E13"/>
@@ -1838,7 +1765,6 @@
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A61:E61"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
